--- a/results/BSC(AG) 2021 Batch 1st Sem.xlsx
+++ b/results/BSC(AG) 2021 Batch 1st Sem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26E4F8-98E3-41BA-A9C5-7929F68B4CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09DBB03-1ADD-4A11-9699-1D702EB71070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2743,16 +2743,16 @@
   <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="12" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.44140625" style="11" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="11" customWidth="1"/>
